--- a/demo/kcat_over_KM_for_NADPH_by_FDH.xlsx
+++ b/demo/kcat_over_KM_for_NADPH_by_FDH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matteo/Coding/Epistasis_Calculator/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08BBD545-04A3-D546-8AFB-2AF111209671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C423E793-C8C2-E04C-92B8-518EF6B1B4E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32160" yWindow="3260" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
-  <si>
-    <t>G</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
   <si>
     <t>Q</t>
   </si>
@@ -468,17 +465,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -493,194 +490,167 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
